--- a/MySQL_DB_Install/Install_MySQL_Windows.xlsx
+++ b/MySQL_DB_Install/Install_MySQL_Windows.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="571"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="571"/>
   </bookViews>
   <sheets>
     <sheet name="Windows MySQL 安裝說明" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>取消勾選</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,30 +36,6 @@
   </si>
   <si>
     <t>官網下載 MySQL 安裝檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>設定資料庫管理者密碼 (皆輸入：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>root</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://downloads.mysql.com/archives/get/p/25/file/mysql-installer-community-8.0.26.0.msi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -199,38 +171,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> OS 請下載連結：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>點選執行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>mysql-installer-community-8.0.26.0.msi</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,12 +251,145 @@
     <t>先確認本機裝置名稱不能為中文，請重新命名此電腦裝置名稱為英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/windows/installer/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：講義範例於下載當時的版本為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 8.0.37</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點選執行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>mysql-installer-community-8.0.37.0.msi</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>設定資料庫管理者密碼 (皆輸入：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS：個人本機不用擔心密碼外流問題，不用特別使用個人不好記的密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>接續下一個頁籤執行「</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">MySQL Workbench </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>相關設置」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接續下一個頁籤執行「MySQL Workbench 建立資料庫連線」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有安裝與設置!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
@@ -329,20 +402,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial Unicode MS"/>
@@ -367,13 +426,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -435,6 +487,67 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,21 +568,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -559,19 +677,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>35168</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>232116</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -585,8 +703,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="35168" y="6245633"/>
-          <a:ext cx="9950548" cy="1755951"/>
+          <a:off x="51289" y="410308"/>
+          <a:ext cx="4128868" cy="2698359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -607,700 +725,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>35170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>23447</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>10781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="29308" y="8182708"/>
-          <a:ext cx="4261339" cy="3263934"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605392</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="11629292"/>
-          <a:ext cx="4262992" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="15111046"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2057" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="18592800"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2058" name="Picture 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="22074554"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2059" name="Picture 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="25556308"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>170307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2060" name="Picture 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="29038062"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2062" name="Picture 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="32713246"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2064" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="36195000"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2065" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="39676754"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2066" name="Picture 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="43158508"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605394</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>170307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2067" name="Picture 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1" y="46640262"/>
-          <a:ext cx="4262993" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>605392</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>170307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2068" name="Picture 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="50122015"/>
-          <a:ext cx="4262992" cy="3265200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="4137660" cy="3124200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>128953</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>187568</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>216876</xdr:colOff>
+      <xdr:colOff>575895</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>49089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55683</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>175765</xdr:rowOff>
     </xdr:to>
@@ -1312,6 +744,682 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4832837" y="210281"/>
+          <a:ext cx="3128596" cy="3350522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51288</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329712</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="51288" y="4303575"/>
+          <a:ext cx="4535366" cy="3258540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578826</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>197689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288680</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4835768" y="4308093"/>
+          <a:ext cx="4574931" cy="3947883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>87922</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>58959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89387</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="87922" y="8741363"/>
+          <a:ext cx="6082811" cy="1838713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>96538</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>131883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313890</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>141229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="96538" y="10748595"/>
+          <a:ext cx="3866160" cy="2910807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52087</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281353</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>84258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="52087" y="13745307"/>
+          <a:ext cx="3878074" cy="2919778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78314</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142142</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>98913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78314" y="16785980"/>
+          <a:ext cx="3712636" cy="2795221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76660</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369278</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>62279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76660" y="19665462"/>
+          <a:ext cx="4549560" cy="3425336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134074</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>9887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="134074" y="23262981"/>
+          <a:ext cx="3983657" cy="2999271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120213</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281355</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>62277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="120213" y="26347616"/>
+          <a:ext cx="3809950" cy="2868488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>70988</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134815</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="70988" y="29307693"/>
+          <a:ext cx="3712635" cy="2795220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136702</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142141</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>54952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="136702" y="32795307"/>
+          <a:ext cx="3654247" cy="2751260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>149966</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427891</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="149966" y="35733404"/>
+          <a:ext cx="3926733" cy="2956414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161313</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215410</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>40297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="161313" y="38905961"/>
+          <a:ext cx="3702905" cy="2787894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>154325</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>296006</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
@@ -1320,8 +1428,155 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4396153" y="187568"/>
-          <a:ext cx="3135923" cy="3886120"/>
+          <a:off x="154325" y="41844058"/>
+          <a:ext cx="3790489" cy="2853836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122613</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274026</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>76933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="122613" y="44833443"/>
+          <a:ext cx="3800221" cy="2861163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>80595</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>151709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215410</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="80595" y="47769382"/>
+          <a:ext cx="3783623" cy="2848667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90787</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>73268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222737</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>18317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="90787" y="50753595"/>
+          <a:ext cx="3780758" cy="2846510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,8 +1809,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23447</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1601,8 +1856,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>284381</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>183092</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>2850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1651,7 +1906,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>293663</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>169985</xdr:rowOff>
+      <xdr:rowOff>160460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1989,8 +2244,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482328</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>165138</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>3945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2038,8 +2293,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>540943</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>165138</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>3945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2430,8 +2685,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>183527</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2757,57 +3012,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A162"/>
+  <dimension ref="A2:A329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>25</v>
+    <row r="2" spans="1:1" ht="16.5">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.6">
+    <row r="16" spans="1:1" ht="14.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="15.6">
+    <row r="17" spans="1:1" ht="14.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="15.6">
+    <row r="18" spans="1:1" ht="14.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="15.6">
+    <row r="19" spans="1:1" ht="14.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="15.6">
+    <row r="20" spans="1:1" ht="14.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.6">
+    <row r="21" spans="1:1" ht="14.25">
       <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16.8">
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.6">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" ht="16.5">
+      <c r="A25" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>4</v>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75">
+      <c r="A48" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" s="8" customFormat="1" ht="16.5">
+      <c r="A196" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15.75">
+      <c r="A197" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="16.5">
+      <c r="A329" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2823,32 +3159,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A81"/>
+  <dimension ref="A2:A110"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="18">
+    <row r="2" spans="1:1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18">
+    <row r="22" spans="1:1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18">
+    <row r="81" spans="1:1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2861,92 +3202,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A343"/>
+  <dimension ref="A2:A350"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J331" sqref="J331"/>
+    <sheetView topLeftCell="A310" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J346" sqref="J346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>16</v>
+    <row r="327" spans="1:1" ht="18.75">
+      <c r="A327" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="18">
-      <c r="A327" s="1" t="s">
-        <v>21</v>
+    <row r="343" spans="1:1" s="13" customFormat="1" ht="18">
+      <c r="A343" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:1" s="8" customFormat="1" ht="20.399999999999999">
-      <c r="A343" s="8" t="s">
-        <v>22</v>
+    <row r="350" spans="1:1" ht="16.5">
+      <c r="A350" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
